--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23115" windowHeight="11775"/>
+    <workbookView windowWidth="21810" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="enums" sheetId="1" r:id="rId1"/>
+    <sheet name="battle" sheetId="4" r:id="rId2"/>
+    <sheet name="skill" sheetId="2" r:id="rId3"/>
+    <sheet name="buff" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
   <si>
     <t>##var</t>
   </si>
@@ -147,6 +150,285 @@
   </si>
   <si>
     <t>位标记使用示例</t>
+  </si>
+  <si>
+    <t>LogicObjectState</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>存活中</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>SurvivalWiteing</t>
+  </si>
+  <si>
+    <t>存活等待中</t>
+  </si>
+  <si>
+    <t>HeroTeamEnum</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>SkillType</t>
+  </si>
+  <si>
+    <t>MoveToAttack</t>
+  </si>
+  <si>
+    <t>普工型技能</t>
+  </si>
+  <si>
+    <t>MoveToEnemyConter</t>
+  </si>
+  <si>
+    <t>移动到敌方阵容中心位置</t>
+  </si>
+  <si>
+    <t>MoveToConter</t>
+  </si>
+  <si>
+    <t>移动到画面中间位置</t>
+  </si>
+  <si>
+    <t>Chant</t>
+  </si>
+  <si>
+    <t>吟唱型技能</t>
+  </si>
+  <si>
+    <t>Ballistic</t>
+  </si>
+  <si>
+    <t>弹道型技能</t>
+  </si>
+  <si>
+    <t>TargetType</t>
+  </si>
+  <si>
+    <t>Teammate</t>
+  </si>
+  <si>
+    <t>队友</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>SkillAttackType</t>
+  </si>
+  <si>
+    <t>SingTarget</t>
+  </si>
+  <si>
+    <t>单体目标</t>
+  </si>
+  <si>
+    <t>AllHero</t>
+  </si>
+  <si>
+    <t>所有英雄</t>
+  </si>
+  <si>
+    <t>BackRowHero</t>
+  </si>
+  <si>
+    <t>后排英雄</t>
+  </si>
+  <si>
+    <t>ForntRowHero</t>
+  </si>
+  <si>
+    <t>前排英雄</t>
+  </si>
+  <si>
+    <t>SamColumnHero</t>
+  </si>
+  <si>
+    <t>同一列的英雄，同一列英雄全部阵亡后，攻击另一侧，最后是中间的英雄</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>NormalDamage</t>
+  </si>
+  <si>
+    <t>普通伤害</t>
+  </si>
+  <si>
+    <t>RealDamage</t>
+  </si>
+  <si>
+    <t>真实伤害，无视护盾效果 和减伤效果</t>
+  </si>
+  <si>
+    <t>AtkPercentage</t>
+  </si>
+  <si>
+    <t>攻击力百分比伤害</t>
+  </si>
+  <si>
+    <t>HPPercentage</t>
+  </si>
+  <si>
+    <t>生命值百分比伤害</t>
+  </si>
+  <si>
+    <t>SKillState</t>
+  </si>
+  <si>
+    <t>ShakeBefore</t>
+  </si>
+  <si>
+    <t>技能前摇</t>
+  </si>
+  <si>
+    <t>ShakeAfter</t>
+  </si>
+  <si>
+    <t>技能后摇</t>
+  </si>
+  <si>
+    <t>BuffType</t>
+  </si>
+  <si>
+    <t>DamageBuff</t>
+  </si>
+  <si>
+    <t>伤害型buff</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>增益buff</t>
+  </si>
+  <si>
+    <t>DeBuff</t>
+  </si>
+  <si>
+    <t>存活等待中减益buff</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>控制buff</t>
+  </si>
+  <si>
+    <t>BuffState</t>
+  </si>
+  <si>
+    <t>PercentageReduceDamage</t>
+  </si>
+  <si>
+    <t>百分比减伤</t>
+  </si>
+  <si>
+    <t>DamageDeepening</t>
+  </si>
+  <si>
+    <t>伤害加深</t>
+  </si>
+  <si>
+    <t>HPRecoveryIncrease</t>
+  </si>
+  <si>
+    <t>生命值回复增加</t>
+  </si>
+  <si>
+    <t>HPRecoveryReduce</t>
+  </si>
+  <si>
+    <t>生命值回复减少</t>
+  </si>
+  <si>
+    <t>Durn</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>Purify</t>
+  </si>
+  <si>
+    <t>净化</t>
+  </si>
+  <si>
+    <t>Forzen</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>AtkAdd</t>
+  </si>
+  <si>
+    <t>攻击增加</t>
+  </si>
+  <si>
+    <t>DefAdd</t>
+  </si>
+  <si>
+    <t>防御增加</t>
+  </si>
+  <si>
+    <t>BuffTriggerType</t>
+  </si>
+  <si>
+    <t>OneDamage_RealTiem</t>
+  </si>
+  <si>
+    <t>即时性 一次性伤害</t>
+  </si>
+  <si>
+    <t>MultisegmentDamage_RealTime</t>
+  </si>
+  <si>
+    <t>即时性 多段伤害</t>
+  </si>
+  <si>
+    <t>Damage_RoundStart</t>
+  </si>
+  <si>
+    <t>回合开始时伤害</t>
+  </si>
+  <si>
+    <t>Damage_RoundEnd</t>
+  </si>
+  <si>
+    <t>回合结束时伤害</t>
+  </si>
+  <si>
+    <t>BuffDamageType</t>
+  </si>
+  <si>
+    <t>NormalAttackDamage</t>
+  </si>
+  <si>
+    <t>真实伤害</t>
+  </si>
+  <si>
+    <t>NoneDamageControl</t>
+  </si>
+  <si>
+    <t>无伤害控制型</t>
   </si>
 </sst>
 </file>
@@ -159,9 +441,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -653,137 +942,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +1084,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1120,8 +1427,8 @@
   <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1224,196 +1531,196 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="b">
+      <c r="C4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="b">
+      <c r="D4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="10">
         <v>2</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="10">
         <v>4</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="b">
+      <c r="C8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="b">
+      <c r="D8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <v>2</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
         <v>4</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <v>8</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1423,4 +1730,1373 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="99" customHeight="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:12">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:12">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:12">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:12">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:12">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="71.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="99" customHeight="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:12">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:12">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:12">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:12">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:12">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:12">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:12">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:12">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:12">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:12">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:12">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:12">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:12">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:12">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:12">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:12">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:12">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="71.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="99" customHeight="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:12">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:12">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:12">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:12">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:12">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:12">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:12">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:12">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:12">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:12">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:12">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:12">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:12">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:12">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:12">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:12">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:12">
+      <c r="A28" s="4"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" ht="15.75" spans="1:12">
+      <c r="A29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>